--- a/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EDCEC92-9111-402A-8B37-E515CC9A0546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{93368341-0190-4C9E-92F0-E1718E76DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4752283D-B5B2-4202-A736-AB792F68F241}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADCBAEAB-40E6-4335-BC91-DE7EFD439C69}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="98">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>0,68%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,250 +107,232 @@
     <t>0,76%</t>
   </si>
   <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>0,38%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>99,62%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
   </si>
   <si>
-    <t>0,47%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
   </si>
   <si>
     <t>0,1%</t>
   </si>
   <si>
-    <t>99,53%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>99,9%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,94%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>0,73%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
+    <t>99,27%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>0,19%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
   </si>
 </sst>
 </file>
@@ -762,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9426B26-3099-4366-AE03-1A15B974CAF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE208AFD-4A3D-4D6F-8F5D-571371B19F45}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1489,7 +1471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E53D088-C107-4505-B0F7-BEE2B01405E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3030D7-3C5E-48F8-B0C7-7951D58D56A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C9DDED-DAEF-49B7-86A4-0A8BC1987AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91C2838-E4E3-4C17-B093-B1FE8664A48E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2353,13 +2335,13 @@
         <v>4666</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2368,13 +2350,13 @@
         <v>4666</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,10 +2384,10 @@
         <v>989994</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>70</v>
@@ -2417,10 +2399,10 @@
         <v>989994</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>70</v>
@@ -2803,10 +2785,10 @@
         <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2818,10 +2800,10 @@
         <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,10 +2834,10 @@
         <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="M14" s="7">
         <v>3309</v>
@@ -2867,10 +2849,10 @@
         <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2943,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D7FBB3E-1909-40AB-BC47-B9D07146606A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA51683-1DCF-4E70-B835-52DCAF44CC96}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2960,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3080,13 +3062,13 @@
         <v>2860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3095,13 +3077,13 @@
         <v>2860</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3111,13 @@
         <v>829065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="M5" s="7">
         <v>1419</v>
@@ -3144,13 +3126,13 @@
         <v>829065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3229,13 +3211,13 @@
         <v>10040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3244,13 +3226,13 @@
         <v>10040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3260,13 @@
         <v>2236223</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>2900</v>
@@ -3293,13 +3275,13 @@
         <v>2236223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3378,13 +3360,13 @@
         <v>4089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3393,13 +3375,13 @@
         <v>4089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3409,13 @@
         <v>708833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
@@ -3442,13 +3424,13 @@
         <v>708833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3509,10 @@
         <v>16989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>28</v>
@@ -3542,10 +3524,10 @@
         <v>16989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>28</v>
@@ -3576,13 +3558,13 @@
         <v>3774121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>5315</v>
@@ -3591,13 +3573,13 @@
         <v>3774121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93368341-0190-4C9E-92F0-E1718E76DE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D7EFFB-E401-4520-9534-7BA3986579EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{ADCBAEAB-40E6-4335-BC91-DE7EFD439C69}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03A19D97-5F24-4179-A7DB-94269109EA90}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -80,259 +80,259 @@
     <t>0,68%</t>
   </si>
   <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2015 (Tasa respuesta: 50,81%)</t>
-  </si>
-  <si>
-    <t>0,13%</t>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,21%</t>
   </si>
   <si>
+    <t>99,43%</t>
+  </si>
+  <si>
     <t>98,79%</t>
   </si>
   <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
     <t>99,81%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
   </si>
 </sst>
 </file>
@@ -744,7 +744,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE208AFD-4A3D-4D6F-8F5D-571371B19F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E54072-5856-401A-8968-5FCBD3187201}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1036,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1051,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1079,13 +1079,13 @@
         <v>1575680</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>1541</v>
@@ -1094,13 +1094,13 @@
         <v>1575680</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1154,7 +1154,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1179,13 +1179,13 @@
         <v>3179</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1194,13 +1194,13 @@
         <v>3179</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1228,13 +1228,13 @@
         <v>473233</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -1243,13 +1243,13 @@
         <v>473233</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,13 +1328,13 @@
         <v>24088</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1343,13 +1343,13 @@
         <v>24088</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,13 +1377,13 @@
         <v>3353252</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>3270</v>
@@ -1392,13 +1392,13 @@
         <v>3353252</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1471,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3030D7-3C5E-48F8-B0C7-7951D58D56A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E766C49-7B45-49D7-BC77-203D70A33C1C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1488,7 +1488,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1608,13 +1608,13 @@
         <v>9264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1623,13 +1623,13 @@
         <v>9264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1657,13 @@
         <v>1318284</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M5" s="7">
         <v>1229</v>
@@ -1672,13 +1672,13 @@
         <v>1318284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1757,13 @@
         <v>7202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1772,13 +1772,13 @@
         <v>7202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1806,13 @@
         <v>1741540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
         <v>1620</v>
@@ -1821,13 +1821,13 @@
         <v>1741540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1881,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1906,13 +1906,13 @@
         <v>5224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1921,13 +1921,13 @@
         <v>5224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1955,13 @@
         <v>450343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -1970,13 +1970,13 @@
         <v>450343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2055,13 @@
         <v>21690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2070,13 +2070,13 @@
         <v>21690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2104,13 @@
         <v>3510168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>3254</v>
@@ -2119,13 +2119,13 @@
         <v>3510168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,7 +2179,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91C2838-E4E3-4C17-B093-B1FE8664A48E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95378211-A8AA-47E0-BD3B-D3E7BEAAC244}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2335,13 +2335,13 @@
         <v>4666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2350,13 +2350,13 @@
         <v>4666</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2384,13 @@
         <v>989994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M5" s="7">
         <v>888</v>
@@ -2399,13 +2399,13 @@
         <v>989994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2484,13 @@
         <v>10075</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2499,13 +2499,13 @@
         <v>10075</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2533,13 @@
         <v>1978225</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>1898</v>
@@ -2548,13 +2548,13 @@
         <v>1978225</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2608,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2633,13 @@
         <v>3347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2648,13 +2648,13 @@
         <v>3347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2682,13 @@
         <v>545793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -2697,13 +2697,13 @@
         <v>545793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2782,13 @@
         <v>18088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2797,13 +2797,13 @@
         <v>18088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2831,13 @@
         <v>3514012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="M14" s="7">
         <v>3309</v>
@@ -2846,13 +2846,13 @@
         <v>3514012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2906,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA51683-1DCF-4E70-B835-52DCAF44CC96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D113F5-C1F1-4941-8128-3FE6284ADD3E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2942,7 +2942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3062,13 +3062,13 @@
         <v>2860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3077,13 +3077,13 @@
         <v>2860</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3111,7 @@
         <v>829065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>86</v>
@@ -3126,7 +3126,7 @@
         <v>829065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>86</v>
@@ -3214,7 +3214,7 @@
         <v>88</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>89</v>
@@ -3229,7 +3229,7 @@
         <v>88</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>89</v>
@@ -3266,7 +3266,7 @@
         <v>91</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M8" s="7">
         <v>2900</v>
@@ -3281,7 +3281,7 @@
         <v>91</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,7 +3335,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3366,7 +3366,7 @@
         <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3381,7 +3381,7 @@
         <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3409,13 @@
         <v>708833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
@@ -3424,13 +3424,13 @@
         <v>708833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3512,10 +3512,10 @@
         <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3527,10 +3527,10 @@
         <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3561,10 +3561,10 @@
         <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M14" s="7">
         <v>5315</v>
@@ -3576,10 +3576,10 @@
         <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3633,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D7EFFB-E401-4520-9534-7BA3986579EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C7F427-72C8-41FC-955F-611458B15C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{03A19D97-5F24-4179-A7DB-94269109EA90}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83085F79-A4A4-4C1E-A728-F1108E991834}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="104">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,99 +80,111 @@
     <t>0,68%</t>
   </si>
   <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
     <t>0,31%</t>
   </si>
   <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,69%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2012 (Tasa respuesta: 50,36%)</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
     <t>0,41%</t>
   </si>
   <si>
@@ -194,37 +206,37 @@
     <t>1,15%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
   </si>
   <si>
     <t>99,39%</t>
   </si>
   <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
   </si>
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2016 (Tasa respuesta: 50,81%)</t>
@@ -233,106 +245,112 @@
     <t>0,47%</t>
   </si>
   <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,94%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
   </si>
   <si>
     <t>99,8%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2023 (Tasa respuesta: 61,24%)</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
   </si>
 </sst>
 </file>
@@ -744,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E54072-5856-401A-8968-5FCBD3187201}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F5A73C-EEC4-4301-A6DB-E0B1830960AE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1036,7 +1054,7 @@
         <v>22</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -1051,7 +1069,7 @@
         <v>22</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1079,13 +1097,13 @@
         <v>1575680</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>1541</v>
@@ -1094,13 +1112,13 @@
         <v>1575680</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1154,7 +1172,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1179,13 +1197,13 @@
         <v>3179</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1194,13 +1212,13 @@
         <v>3179</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1228,13 +1246,13 @@
         <v>473233</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M11" s="7">
         <v>449</v>
@@ -1243,13 +1261,13 @@
         <v>473233</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,13 +1346,13 @@
         <v>24088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -1343,13 +1361,13 @@
         <v>24088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1377,13 +1395,13 @@
         <v>3353252</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M14" s="7">
         <v>3270</v>
@@ -1392,13 +1410,13 @@
         <v>3353252</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,7 +1470,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E766C49-7B45-49D7-BC77-203D70A33C1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4589DD9-B717-4519-9C8A-2075FCA1D288}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1488,7 +1506,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1608,13 +1626,13 @@
         <v>9264</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="M4" s="7">
         <v>8</v>
@@ -1623,13 +1641,13 @@
         <v>9264</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1675,13 @@
         <v>1318284</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="M5" s="7">
         <v>1229</v>
@@ -1672,13 +1690,13 @@
         <v>1318284</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1775,13 @@
         <v>7202</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -1772,13 +1790,13 @@
         <v>7202</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1806,13 +1824,13 @@
         <v>1741540</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>1620</v>
@@ -1821,13 +1839,13 @@
         <v>1741540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1881,7 +1899,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1906,13 +1924,13 @@
         <v>5224</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>4</v>
@@ -1921,13 +1939,13 @@
         <v>5224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1973,13 @@
         <v>450343</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="M11" s="7">
         <v>405</v>
@@ -1970,13 +1988,13 @@
         <v>450343</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2073,13 @@
         <v>21690</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2070,13 +2088,13 @@
         <v>21690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2104,13 +2122,13 @@
         <v>3510168</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="M14" s="7">
         <v>3254</v>
@@ -2119,13 +2137,13 @@
         <v>3510168</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,7 +2197,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2198,7 +2216,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95378211-A8AA-47E0-BD3B-D3E7BEAAC244}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21356AA5-DE27-49F8-8EF9-A9A4FBC01C6E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2215,7 +2233,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2335,13 +2353,13 @@
         <v>4666</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2350,13 +2368,13 @@
         <v>4666</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2384,13 +2402,13 @@
         <v>989994</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M5" s="7">
         <v>888</v>
@@ -2399,13 +2417,13 @@
         <v>989994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2502,13 @@
         <v>10075</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M7" s="7">
         <v>10</v>
@@ -2499,13 +2517,13 @@
         <v>10075</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2533,13 +2551,13 @@
         <v>1978225</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M8" s="7">
         <v>1898</v>
@@ -2548,13 +2566,13 @@
         <v>1978225</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,7 +2626,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2633,13 +2651,13 @@
         <v>3347</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -2648,13 +2666,13 @@
         <v>3347</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2700,13 @@
         <v>545793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M11" s="7">
         <v>523</v>
@@ -2697,13 +2715,13 @@
         <v>545793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,13 +2800,13 @@
         <v>18088</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2797,13 +2815,13 @@
         <v>18088</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2849,13 @@
         <v>3514012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>3309</v>
@@ -2846,13 +2864,13 @@
         <v>3514012</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2924,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69D113F5-C1F1-4941-8128-3FE6284ADD3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9A35D7-0A28-48E0-BB9F-AFD62FBA1FB5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2942,7 +2960,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3062,13 +3080,13 @@
         <v>2860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -3077,13 +3095,13 @@
         <v>2860</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,13 +3129,13 @@
         <v>829065</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7">
         <v>1419</v>
@@ -3126,13 +3144,13 @@
         <v>829065</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3211,13 +3229,13 @@
         <v>10040</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -3226,13 +3244,13 @@
         <v>10040</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3278,13 @@
         <v>2236223</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="M8" s="7">
         <v>2900</v>
@@ -3275,13 +3293,13 @@
         <v>2236223</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,7 +3353,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3360,13 +3378,13 @@
         <v>4089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3375,13 +3393,13 @@
         <v>4089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3427,13 @@
         <v>708833</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
@@ -3424,13 +3442,13 @@
         <v>708833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3527,13 @@
         <v>16989</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
@@ -3524,13 +3542,13 @@
         <v>16989</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3576,13 @@
         <v>3774121</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>5315</v>
@@ -3573,13 +3591,13 @@
         <v>3774121</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3633,7 +3651,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P16A17-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7C7F427-72C8-41FC-955F-611458B15C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CF39E04-2C90-4575-8830-933B4A7B35C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{83085F79-A4A4-4C1E-A728-F1108E991834}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5C73FDAB-4BF7-4196-B498-347662B377C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="106">
   <si>
     <t>Población que ha consumido hormonas para la menopausia en las dos últimas semanas en 2007 (Tasa respuesta: 50,59%)</t>
   </si>
@@ -302,55 +302,61 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>99,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
   </si>
   <si>
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
   </si>
   <si>
     <t>99,8%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
 </sst>
 </file>
@@ -762,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F5A73C-EEC4-4301-A6DB-E0B1830960AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E828A6-858F-4883-B303-34013F82748B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1392,7 +1398,7 @@
         <v>3270</v>
       </c>
       <c r="I14" s="7">
-        <v>3353252</v>
+        <v>3353251</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>37</v>
@@ -1407,7 +1413,7 @@
         <v>3270</v>
       </c>
       <c r="N14" s="7">
-        <v>3353252</v>
+        <v>3353251</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>37</v>
@@ -1441,7 +1447,7 @@
         <v>3294</v>
       </c>
       <c r="I15" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1456,7 +1462,7 @@
         <v>3294</v>
       </c>
       <c r="N15" s="7">
-        <v>3377340</v>
+        <v>3377339</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1489,7 +1495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4589DD9-B717-4519-9C8A-2075FCA1D288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79CBD683-D31D-499E-B148-EDEAE85AD3EA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2119,7 +2125,7 @@
         <v>3254</v>
       </c>
       <c r="I14" s="7">
-        <v>3510168</v>
+        <v>3510167</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>63</v>
@@ -2134,7 +2140,7 @@
         <v>3254</v>
       </c>
       <c r="N14" s="7">
-        <v>3510168</v>
+        <v>3510167</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>63</v>
@@ -2168,7 +2174,7 @@
         <v>3273</v>
       </c>
       <c r="I15" s="7">
-        <v>3531858</v>
+        <v>3531857</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2183,7 +2189,7 @@
         <v>3273</v>
       </c>
       <c r="N15" s="7">
-        <v>3531858</v>
+        <v>3531857</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2216,7 +2222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21356AA5-DE27-49F8-8EF9-A9A4FBC01C6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A3AD8E6-D911-4FCB-BC19-7A01EC9E336E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2943,7 +2949,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A9A35D7-0A28-48E0-BB9F-AFD62FBA1FB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C40E585-25EB-4C4C-95A5-3BE1BB2F7125}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,7 +3083,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>2860</v>
+        <v>2525</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>86</v>
@@ -3092,7 +3098,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="7">
-        <v>2860</v>
+        <v>2525</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>86</v>
@@ -3126,7 +3132,7 @@
         <v>1419</v>
       </c>
       <c r="I5" s="7">
-        <v>829065</v>
+        <v>749537</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>89</v>
@@ -3141,7 +3147,7 @@
         <v>1419</v>
       </c>
       <c r="N5" s="7">
-        <v>829065</v>
+        <v>749537</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>89</v>
@@ -3175,7 +3181,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3190,7 +3196,7 @@
         <v>1424</v>
       </c>
       <c r="N6" s="7">
-        <v>831925</v>
+        <v>752062</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3226,31 +3232,31 @@
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>10040</v>
+        <v>9087</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>10040</v>
+        <v>9087</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>93</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>94</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,31 +3281,31 @@
         <v>2900</v>
       </c>
       <c r="I8" s="7">
-        <v>2236223</v>
+        <v>2225671</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M8" s="7">
         <v>2900</v>
       </c>
       <c r="N8" s="7">
-        <v>2236223</v>
+        <v>2225671</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3324,7 +3330,7 @@
         <v>2916</v>
       </c>
       <c r="I9" s="7">
-        <v>2246263</v>
+        <v>2234758</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3339,7 +3345,7 @@
         <v>2916</v>
       </c>
       <c r="N9" s="7">
-        <v>2246263</v>
+        <v>2234758</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3375,31 +3381,31 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4089</v>
+        <v>3839</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
       </c>
       <c r="N10" s="7">
-        <v>4089</v>
+        <v>3839</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,31 +3430,31 @@
         <v>996</v>
       </c>
       <c r="I11" s="7">
-        <v>708833</v>
+        <v>655723</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="M11" s="7">
         <v>996</v>
       </c>
       <c r="N11" s="7">
-        <v>708833</v>
+        <v>655723</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3479,7 @@
         <v>1002</v>
       </c>
       <c r="I12" s="7">
-        <v>712922</v>
+        <v>659562</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3488,7 +3494,7 @@
         <v>1002</v>
       </c>
       <c r="N12" s="7">
-        <v>712922</v>
+        <v>659562</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3524,31 +3530,31 @@
         <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>16989</v>
+        <v>15451</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="M13" s="7">
         <v>27</v>
       </c>
       <c r="N13" s="7">
-        <v>16989</v>
+        <v>15451</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,31 +3579,31 @@
         <v>5315</v>
       </c>
       <c r="I14" s="7">
-        <v>3774121</v>
+        <v>3630931</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>5315</v>
       </c>
       <c r="N14" s="7">
-        <v>3774121</v>
+        <v>3630931</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3628,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3791110</v>
+        <v>3646382</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3637,7 +3643,7 @@
         <v>5342</v>
       </c>
       <c r="N15" s="7">
-        <v>3791110</v>
+        <v>3646382</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
